--- a/_Inputs/OutListParameters.xlsx
+++ b/_Inputs/OutListParameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devel\ATLAS_Comp\_Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devel\Wind\ATLAS_Offshore\_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E41A0D-42D2-4EC9-B94E-7B5534C4BEEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E98B8103-3099-4B3B-8FDE-60D77C541C86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ElastoDyn!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -15108,11 +15109,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G890"/>
+  <dimension ref="A1:G889"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D317" sqref="D317"/>
+      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B310" sqref="B308:B310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.45"/>
@@ -15158,7 +15159,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
         <v>375</v>
       </c>
@@ -15175,7 +15176,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
         <v>356</v>
       </c>
@@ -15192,7 +15193,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>416</v>
       </c>
@@ -15209,7 +15210,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
         <v>264</v>
       </c>
@@ -15223,7 +15224,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>267</v>
       </c>
@@ -15237,7 +15238,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>249</v>
       </c>
@@ -15251,7 +15252,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>252</v>
       </c>
@@ -15265,7 +15266,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>255</v>
       </c>
@@ -15279,7 +15280,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>390</v>
       </c>
@@ -15296,7 +15297,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
         <v>378</v>
       </c>
@@ -15313,7 +15314,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="99.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="99.75" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>419</v>
       </c>
@@ -15333,7 +15334,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>430</v>
       </c>
@@ -15350,7 +15351,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>452</v>
       </c>
@@ -15358,7 +15359,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
         <v>376</v>
       </c>
@@ -15375,7 +15376,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
         <v>357</v>
       </c>
@@ -15392,7 +15393,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
         <v>417</v>
       </c>
@@ -15409,7 +15410,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
         <v>265</v>
       </c>
@@ -15423,7 +15424,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B20" s="4" t="s">
         <v>268</v>
       </c>
@@ -15437,7 +15438,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
         <v>250</v>
       </c>
@@ -15451,7 +15452,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B22" s="4" t="s">
         <v>253</v>
       </c>
@@ -15465,7 +15466,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B23" s="4" t="s">
         <v>256</v>
       </c>
@@ -15479,7 +15480,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B24" s="4" t="s">
         <v>391</v>
       </c>
@@ -15496,7 +15497,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B25" s="4" t="s">
         <v>379</v>
       </c>
@@ -15516,7 +15517,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="99.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="99.75" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B26" s="4" t="s">
         <v>420</v>
       </c>
@@ -15536,7 +15537,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B27" s="4" t="s">
         <v>431</v>
       </c>
@@ -15556,7 +15557,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>454</v>
       </c>
@@ -15564,7 +15565,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B29" s="4" t="s">
         <v>377</v>
       </c>
@@ -15584,7 +15585,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B30" s="4" t="s">
         <v>358</v>
       </c>
@@ -15604,7 +15605,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B31" s="4" t="s">
         <v>418</v>
       </c>
@@ -15624,7 +15625,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B32" s="4" t="s">
         <v>266</v>
       </c>
@@ -15641,7 +15642,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B33" s="4" t="s">
         <v>269</v>
       </c>
@@ -15658,7 +15659,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B34" s="4" t="s">
         <v>251</v>
       </c>
@@ -15675,7 +15676,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B35" s="4" t="s">
         <v>254</v>
       </c>
@@ -15692,7 +15693,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B36" s="4" t="s">
         <v>263</v>
       </c>
@@ -15709,7 +15710,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B37" s="4" t="s">
         <v>392</v>
       </c>
@@ -15729,7 +15730,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B38" s="4" t="s">
         <v>380</v>
       </c>
@@ -15749,7 +15750,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="99.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="99.75" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B39" s="4" t="s">
         <v>421</v>
       </c>
@@ -15769,7 +15770,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B40" s="4" t="s">
         <v>432</v>
       </c>
@@ -15789,7 +15790,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>442</v>
       </c>
@@ -15797,7 +15798,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B42" s="4" t="s">
         <v>78</v>
       </c>
@@ -15814,7 +15815,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B43" s="4" t="s">
         <v>81</v>
       </c>
@@ -15831,7 +15832,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B44" s="4" t="s">
         <v>84</v>
       </c>
@@ -15848,7 +15849,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B45" s="4" t="s">
         <v>96</v>
       </c>
@@ -15865,7 +15866,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B46" s="4" t="s">
         <v>99</v>
       </c>
@@ -15882,7 +15883,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B47" s="4" t="s">
         <v>102</v>
       </c>
@@ -15899,7 +15900,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B48" s="4" t="s">
         <v>114</v>
       </c>
@@ -15916,7 +15917,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B49" s="4" t="s">
         <v>117</v>
       </c>
@@ -15933,7 +15934,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B50" s="4" t="s">
         <v>120</v>
       </c>
@@ -15950,7 +15951,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B51" s="4" t="s">
         <v>132</v>
       </c>
@@ -15967,7 +15968,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B52" s="4" t="s">
         <v>135</v>
       </c>
@@ -15984,7 +15985,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B53" s="4" t="s">
         <v>138</v>
       </c>
@@ -16001,7 +16002,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B54" s="4" t="s">
         <v>150</v>
       </c>
@@ -16018,7 +16019,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B55" s="4" t="s">
         <v>153</v>
       </c>
@@ -16035,7 +16036,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B56" s="4" t="s">
         <v>156</v>
       </c>
@@ -16052,7 +16053,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B57" s="4" t="s">
         <v>168</v>
       </c>
@@ -16069,7 +16070,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B58" s="4" t="s">
         <v>171</v>
       </c>
@@ -16086,7 +16087,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B59" s="4" t="s">
         <v>174</v>
       </c>
@@ -16103,7 +16104,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B60" s="4" t="s">
         <v>186</v>
       </c>
@@ -16120,7 +16121,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B61" s="4" t="s">
         <v>189</v>
       </c>
@@ -16137,7 +16138,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B62" s="4" t="s">
         <v>192</v>
       </c>
@@ -16154,7 +16155,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B63" s="4" t="s">
         <v>204</v>
       </c>
@@ -16171,7 +16172,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B64" s="4" t="s">
         <v>207</v>
       </c>
@@ -16188,7 +16189,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B65" s="4" t="s">
         <v>210</v>
       </c>
@@ -16205,7 +16206,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B66" s="4" t="s">
         <v>222</v>
       </c>
@@ -16222,7 +16223,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B67" s="4" t="s">
         <v>225</v>
       </c>
@@ -16239,7 +16240,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B68" s="4" t="s">
         <v>228</v>
       </c>
@@ -16256,7 +16257,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="69" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B69" s="8" t="s">
         <v>1412</v>
       </c>
@@ -16274,7 +16275,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="70" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B70" s="4" t="s">
         <v>1570</v>
       </c>
@@ -16291,7 +16292,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B71" s="4" t="s">
         <v>1571</v>
       </c>
@@ -16308,7 +16309,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="72" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B72" s="8" t="s">
         <v>1572</v>
       </c>
@@ -16326,7 +16327,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="73" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B73" s="4" t="s">
         <v>1573</v>
       </c>
@@ -16343,7 +16344,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B74" s="4" t="s">
         <v>1574</v>
       </c>
@@ -16360,7 +16361,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="75" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B75" s="8" t="s">
         <v>1575</v>
       </c>
@@ -16378,7 +16379,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="76" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B76" s="4" t="s">
         <v>1576</v>
       </c>
@@ -16395,7 +16396,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B77" s="4" t="s">
         <v>1577</v>
       </c>
@@ -16412,7 +16413,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="78" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B78" s="8" t="s">
         <v>1578</v>
       </c>
@@ -16430,7 +16431,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B79" s="4" t="s">
         <v>1579</v>
       </c>
@@ -16447,7 +16448,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="80" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B80" s="4" t="s">
         <v>1580</v>
       </c>
@@ -16464,7 +16465,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="81" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B81" s="8" t="s">
         <v>1581</v>
       </c>
@@ -16482,7 +16483,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B82" s="4" t="s">
         <v>1582</v>
       </c>
@@ -16499,7 +16500,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="83" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B83" s="4" t="s">
         <v>1583</v>
       </c>
@@ -16516,7 +16517,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="84" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B84" s="8" t="s">
         <v>1584</v>
       </c>
@@ -16534,7 +16535,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="85" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B85" s="4" t="s">
         <v>1585</v>
       </c>
@@ -16551,7 +16552,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B86" s="4" t="s">
         <v>1586</v>
       </c>
@@ -16568,7 +16569,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="87" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B87" s="8" t="s">
         <v>1589</v>
       </c>
@@ -16586,7 +16587,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B88" s="4" t="s">
         <v>1587</v>
       </c>
@@ -16603,7 +16604,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B89" s="4" t="s">
         <v>1588</v>
       </c>
@@ -16620,7 +16621,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="90" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B90" s="8" t="s">
         <v>1590</v>
       </c>
@@ -16638,7 +16639,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B91" s="4" t="s">
         <v>1591</v>
       </c>
@@ -16655,7 +16656,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B92" s="4" t="s">
         <v>1592</v>
       </c>
@@ -16672,7 +16673,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="93" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B93" s="8" t="s">
         <v>1593</v>
       </c>
@@ -16690,7 +16691,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B94" s="4" t="s">
         <v>1594</v>
       </c>
@@ -16707,7 +16708,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B95" s="4" t="s">
         <v>1595</v>
       </c>
@@ -16724,7 +16725,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="96" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B96" s="8" t="s">
         <v>1623</v>
       </c>
@@ -16742,7 +16743,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B97" s="4" t="s">
         <v>1624</v>
       </c>
@@ -16759,7 +16760,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B98" s="4" t="s">
         <v>1625</v>
       </c>
@@ -16776,7 +16777,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="99" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B99" s="8" t="s">
         <v>1626</v>
       </c>
@@ -16794,7 +16795,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B100" s="4" t="s">
         <v>1627</v>
       </c>
@@ -16811,7 +16812,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B101" s="4" t="s">
         <v>1628</v>
       </c>
@@ -16828,7 +16829,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="102" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B102" s="8" t="s">
         <v>1629</v>
       </c>
@@ -16846,7 +16847,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B103" s="4" t="s">
         <v>1630</v>
       </c>
@@ -16863,7 +16864,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="104" spans="2:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B104" s="4" t="s">
         <v>1631</v>
       </c>
@@ -16880,7 +16881,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B105" s="8" t="s">
         <v>1632</v>
       </c>
@@ -16898,7 +16899,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B106" s="4" t="s">
         <v>1633</v>
       </c>
@@ -16915,7 +16916,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B107" s="4" t="s">
         <v>1634</v>
       </c>
@@ -16932,7 +16933,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="108" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B108" s="8" t="s">
         <v>1635</v>
       </c>
@@ -16950,7 +16951,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B109" s="4" t="s">
         <v>1636</v>
       </c>
@@ -16967,7 +16968,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B110" s="4" t="s">
         <v>1637</v>
       </c>
@@ -16984,7 +16985,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="111" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B111" s="8" t="s">
         <v>1638</v>
       </c>
@@ -17002,7 +17003,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B112" s="4" t="s">
         <v>1639</v>
       </c>
@@ -17019,7 +17020,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B113" s="4" t="s">
         <v>1640</v>
       </c>
@@ -17036,7 +17037,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B114" s="8" t="s">
         <v>1641</v>
       </c>
@@ -17054,7 +17055,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B115" s="4" t="s">
         <v>1642</v>
       </c>
@@ -17071,7 +17072,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B116" s="4" t="s">
         <v>1643</v>
       </c>
@@ -17088,7 +17089,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B117" s="8" t="s">
         <v>1644</v>
       </c>
@@ -17106,7 +17107,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B118" s="4" t="s">
         <v>1645</v>
       </c>
@@ -17123,7 +17124,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B119" s="4" t="s">
         <v>1646</v>
       </c>
@@ -17140,7 +17141,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B120" s="8" t="s">
         <v>1647</v>
       </c>
@@ -17158,7 +17159,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B121" s="4" t="s">
         <v>1648</v>
       </c>
@@ -17175,7 +17176,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B122" s="4" t="s">
         <v>1649</v>
       </c>
@@ -17192,7 +17193,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>453</v>
       </c>
@@ -17200,7 +17201,7 @@
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B124" s="4" t="s">
         <v>79</v>
       </c>
@@ -17217,7 +17218,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B125" s="4" t="s">
         <v>82</v>
       </c>
@@ -17234,7 +17235,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B126" s="4" t="s">
         <v>85</v>
       </c>
@@ -17251,7 +17252,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B127" s="4" t="s">
         <v>97</v>
       </c>
@@ -17268,7 +17269,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B128" s="4" t="s">
         <v>100</v>
       </c>
@@ -17285,7 +17286,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="129" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B129" s="4" t="s">
         <v>103</v>
       </c>
@@ -17302,7 +17303,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="130" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B130" s="4" t="s">
         <v>115</v>
       </c>
@@ -17319,7 +17320,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="131" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B131" s="4" t="s">
         <v>118</v>
       </c>
@@ -17336,7 +17337,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="132" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B132" s="4" t="s">
         <v>121</v>
       </c>
@@ -17353,7 +17354,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="133" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B133" s="4" t="s">
         <v>133</v>
       </c>
@@ -17370,7 +17371,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="134" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B134" s="4" t="s">
         <v>136</v>
       </c>
@@ -17387,7 +17388,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="135" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B135" s="4" t="s">
         <v>139</v>
       </c>
@@ -17404,7 +17405,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="136" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B136" s="4" t="s">
         <v>151</v>
       </c>
@@ -17421,7 +17422,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="137" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B137" s="4" t="s">
         <v>154</v>
       </c>
@@ -17438,7 +17439,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="138" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B138" s="4" t="s">
         <v>157</v>
       </c>
@@ -17455,7 +17456,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="139" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B139" s="4" t="s">
         <v>169</v>
       </c>
@@ -17472,7 +17473,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="140" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B140" s="4" t="s">
         <v>172</v>
       </c>
@@ -17489,7 +17490,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="141" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B141" s="4" t="s">
         <v>175</v>
       </c>
@@ -17506,7 +17507,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="142" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B142" s="4" t="s">
         <v>187</v>
       </c>
@@ -17523,7 +17524,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="143" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B143" s="4" t="s">
         <v>190</v>
       </c>
@@ -17540,7 +17541,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="144" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B144" s="4" t="s">
         <v>193</v>
       </c>
@@ -17557,7 +17558,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="145" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B145" s="4" t="s">
         <v>205</v>
       </c>
@@ -17574,7 +17575,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="146" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B146" s="4" t="s">
         <v>208</v>
       </c>
@@ -17591,7 +17592,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="147" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B147" s="4" t="s">
         <v>211</v>
       </c>
@@ -17608,7 +17609,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="148" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B148" s="4" t="s">
         <v>223</v>
       </c>
@@ -17625,7 +17626,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="149" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B149" s="4" t="s">
         <v>226</v>
       </c>
@@ -17642,7 +17643,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="150" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B150" s="4" t="s">
         <v>229</v>
       </c>
@@ -17659,7 +17660,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="151" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B151" s="8" t="s">
         <v>1820</v>
       </c>
@@ -17677,7 +17678,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="152" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B152" s="4" t="s">
         <v>1821</v>
       </c>
@@ -17694,7 +17695,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="153" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B153" s="4" t="s">
         <v>1822</v>
       </c>
@@ -17711,7 +17712,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="154" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B154" s="8" t="s">
         <v>1823</v>
       </c>
@@ -17729,7 +17730,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="155" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B155" s="4" t="s">
         <v>1824</v>
       </c>
@@ -17746,7 +17747,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="156" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B156" s="4" t="s">
         <v>1825</v>
       </c>
@@ -17763,7 +17764,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="157" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B157" s="8" t="s">
         <v>1826</v>
       </c>
@@ -17781,7 +17782,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="158" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B158" s="4" t="s">
         <v>1827</v>
       </c>
@@ -17798,7 +17799,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="159" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B159" s="4" t="s">
         <v>1828</v>
       </c>
@@ -17815,7 +17816,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="160" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B160" s="8" t="s">
         <v>1829</v>
       </c>
@@ -17833,7 +17834,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="161" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B161" s="4" t="s">
         <v>1830</v>
       </c>
@@ -17850,7 +17851,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="162" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B162" s="4" t="s">
         <v>1831</v>
       </c>
@@ -17867,7 +17868,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="163" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B163" s="8" t="s">
         <v>1832</v>
       </c>
@@ -17885,7 +17886,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="164" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B164" s="4" t="s">
         <v>1833</v>
       </c>
@@ -17902,7 +17903,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="165" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B165" s="4" t="s">
         <v>1834</v>
       </c>
@@ -17919,7 +17920,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="166" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B166" s="8" t="s">
         <v>1835</v>
       </c>
@@ -17937,7 +17938,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="167" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B167" s="4" t="s">
         <v>1836</v>
       </c>
@@ -17954,7 +17955,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="168" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B168" s="4" t="s">
         <v>1837</v>
       </c>
@@ -17971,7 +17972,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="169" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B169" s="8" t="s">
         <v>1838</v>
       </c>
@@ -17989,7 +17990,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="170" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B170" s="4" t="s">
         <v>1839</v>
       </c>
@@ -18006,7 +18007,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="171" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B171" s="4" t="s">
         <v>1840</v>
       </c>
@@ -18023,7 +18024,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="172" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B172" s="8" t="s">
         <v>1841</v>
       </c>
@@ -18041,7 +18042,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="173" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B173" s="4" t="s">
         <v>1842</v>
       </c>
@@ -18058,7 +18059,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="174" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B174" s="4" t="s">
         <v>1843</v>
       </c>
@@ -18075,7 +18076,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="175" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B175" s="8" t="s">
         <v>1844</v>
       </c>
@@ -18093,7 +18094,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="176" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B176" s="4" t="s">
         <v>1845</v>
       </c>
@@ -18110,7 +18111,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="177" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B177" s="4" t="s">
         <v>1846</v>
       </c>
@@ -18127,7 +18128,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="178" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B178" s="8" t="s">
         <v>1847</v>
       </c>
@@ -18145,7 +18146,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="179" spans="2:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B179" s="4" t="s">
         <v>1848</v>
       </c>
@@ -18162,7 +18163,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="180" spans="2:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B180" s="4" t="s">
         <v>1849</v>
       </c>
@@ -18179,7 +18180,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="181" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B181" s="8" t="s">
         <v>1850</v>
       </c>
@@ -18197,7 +18198,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="182" spans="2:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B182" s="4" t="s">
         <v>1851</v>
       </c>
@@ -18214,7 +18215,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="183" spans="2:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B183" s="4" t="s">
         <v>1852</v>
       </c>
@@ -18231,7 +18232,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="184" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B184" s="8" t="s">
         <v>1853</v>
       </c>
@@ -18249,7 +18250,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="185" spans="2:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B185" s="4" t="s">
         <v>1854</v>
       </c>
@@ -18266,7 +18267,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="186" spans="2:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B186" s="4" t="s">
         <v>1855</v>
       </c>
@@ -18283,7 +18284,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="187" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B187" s="8" t="s">
         <v>1856</v>
       </c>
@@ -18301,7 +18302,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="188" spans="2:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B188" s="4" t="s">
         <v>1857</v>
       </c>
@@ -18318,7 +18319,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="189" spans="2:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B189" s="4" t="s">
         <v>1858</v>
       </c>
@@ -18335,7 +18336,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="190" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B190" s="8" t="s">
         <v>1859</v>
       </c>
@@ -18353,7 +18354,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="191" spans="2:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B191" s="4" t="s">
         <v>1860</v>
       </c>
@@ -18370,7 +18371,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="192" spans="2:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B192" s="4" t="s">
         <v>1861</v>
       </c>
@@ -18387,7 +18388,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B193" s="8" t="s">
         <v>1862</v>
       </c>
@@ -18405,7 +18406,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B194" s="4" t="s">
         <v>1863</v>
       </c>
@@ -18422,7 +18423,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B195" s="4" t="s">
         <v>1864</v>
       </c>
@@ -18439,7 +18440,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B196" s="8" t="s">
         <v>1865</v>
       </c>
@@ -18457,7 +18458,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B197" s="4" t="s">
         <v>1866</v>
       </c>
@@ -18474,7 +18475,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B198" s="4" t="s">
         <v>1867</v>
       </c>
@@ -18491,7 +18492,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="199" spans="1:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B199" s="8" t="s">
         <v>1868</v>
       </c>
@@ -18509,7 +18510,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B200" s="4" t="s">
         <v>1869</v>
       </c>
@@ -18526,7 +18527,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B201" s="4" t="s">
         <v>1870</v>
       </c>
@@ -18543,7 +18544,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B202" s="8" t="s">
         <v>1871</v>
       </c>
@@ -18561,7 +18562,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B203" s="4" t="s">
         <v>1872</v>
       </c>
@@ -18578,7 +18579,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B204" s="4" t="s">
         <v>1873</v>
       </c>
@@ -18595,7 +18596,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A205" s="3" t="s">
         <v>455</v>
       </c>
@@ -18603,7 +18604,7 @@
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
     </row>
-    <row r="206" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B206" s="4" t="s">
         <v>80</v>
       </c>
@@ -18620,7 +18621,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B207" s="4" t="s">
         <v>83</v>
       </c>
@@ -18637,7 +18638,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B208" s="4" t="s">
         <v>86</v>
       </c>
@@ -18654,7 +18655,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="209" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B209" s="4" t="s">
         <v>98</v>
       </c>
@@ -18671,7 +18672,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="210" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B210" s="4" t="s">
         <v>101</v>
       </c>
@@ -18688,7 +18689,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="211" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B211" s="4" t="s">
         <v>104</v>
       </c>
@@ -18705,7 +18706,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="212" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B212" s="4" t="s">
         <v>116</v>
       </c>
@@ -18722,7 +18723,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="213" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B213" s="4" t="s">
         <v>119</v>
       </c>
@@ -18739,7 +18740,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="214" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B214" s="4" t="s">
         <v>122</v>
       </c>
@@ -18756,7 +18757,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="215" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B215" s="4" t="s">
         <v>134</v>
       </c>
@@ -18773,7 +18774,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="216" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B216" s="4" t="s">
         <v>137</v>
       </c>
@@ -18790,7 +18791,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="217" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B217" s="4" t="s">
         <v>140</v>
       </c>
@@ -18807,7 +18808,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="218" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B218" s="4" t="s">
         <v>152</v>
       </c>
@@ -18824,7 +18825,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="219" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B219" s="4" t="s">
         <v>155</v>
       </c>
@@ -18841,7 +18842,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="220" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B220" s="4" t="s">
         <v>158</v>
       </c>
@@ -18858,7 +18859,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="221" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B221" s="4" t="s">
         <v>170</v>
       </c>
@@ -18875,7 +18876,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="222" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B222" s="4" t="s">
         <v>173</v>
       </c>
@@ -18892,7 +18893,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="223" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B223" s="4" t="s">
         <v>176</v>
       </c>
@@ -18909,7 +18910,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="224" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B224" s="4" t="s">
         <v>188</v>
       </c>
@@ -18926,7 +18927,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="225" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B225" s="4" t="s">
         <v>191</v>
       </c>
@@ -18943,7 +18944,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="226" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B226" s="4" t="s">
         <v>194</v>
       </c>
@@ -18960,7 +18961,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="227" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B227" s="4" t="s">
         <v>206</v>
       </c>
@@ -18977,7 +18978,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="228" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B228" s="4" t="s">
         <v>209</v>
       </c>
@@ -18994,7 +18995,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="229" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B229" s="4" t="s">
         <v>212</v>
       </c>
@@ -19011,7 +19012,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="230" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B230" s="4" t="s">
         <v>224</v>
       </c>
@@ -19028,7 +19029,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="231" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B231" s="4" t="s">
         <v>227</v>
       </c>
@@ -19045,7 +19046,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="232" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B232" s="4" t="s">
         <v>230</v>
       </c>
@@ -19062,7 +19063,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="233" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B233" s="8" t="s">
         <v>1712</v>
       </c>
@@ -19080,7 +19081,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="234" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B234" s="4" t="s">
         <v>1713</v>
       </c>
@@ -19097,7 +19098,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="235" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B235" s="4" t="s">
         <v>1714</v>
       </c>
@@ -19114,7 +19115,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="236" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B236" s="8" t="s">
         <v>1715</v>
       </c>
@@ -19132,7 +19133,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="237" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B237" s="4" t="s">
         <v>1716</v>
       </c>
@@ -19149,7 +19150,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="238" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B238" s="4" t="s">
         <v>1717</v>
       </c>
@@ -19166,7 +19167,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="239" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B239" s="8" t="s">
         <v>1718</v>
       </c>
@@ -19184,7 +19185,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="240" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B240" s="4" t="s">
         <v>1719</v>
       </c>
@@ -19201,7 +19202,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="241" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B241" s="4" t="s">
         <v>1720</v>
       </c>
@@ -19218,7 +19219,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="242" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B242" s="8" t="s">
         <v>1721</v>
       </c>
@@ -19236,7 +19237,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="243" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B243" s="4" t="s">
         <v>1722</v>
       </c>
@@ -19253,7 +19254,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="244" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B244" s="4" t="s">
         <v>1723</v>
       </c>
@@ -19270,7 +19271,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="245" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B245" s="8" t="s">
         <v>1724</v>
       </c>
@@ -19288,7 +19289,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="246" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B246" s="4" t="s">
         <v>1725</v>
       </c>
@@ -19305,7 +19306,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="247" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B247" s="4" t="s">
         <v>1726</v>
       </c>
@@ -19322,7 +19323,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="248" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B248" s="8" t="s">
         <v>1727</v>
       </c>
@@ -19340,7 +19341,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="249" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B249" s="4" t="s">
         <v>1728</v>
       </c>
@@ -19357,7 +19358,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="250" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B250" s="4" t="s">
         <v>1729</v>
       </c>
@@ -19374,7 +19375,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="251" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B251" s="8" t="s">
         <v>1730</v>
       </c>
@@ -19392,7 +19393,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="252" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B252" s="4" t="s">
         <v>1731</v>
       </c>
@@ -19409,7 +19410,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="253" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B253" s="4" t="s">
         <v>1732</v>
       </c>
@@ -19426,7 +19427,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="254" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B254" s="8" t="s">
         <v>1733</v>
       </c>
@@ -19444,7 +19445,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="255" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B255" s="4" t="s">
         <v>1734</v>
       </c>
@@ -19461,7 +19462,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="256" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B256" s="4" t="s">
         <v>1735</v>
       </c>
@@ -19478,7 +19479,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="257" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B257" s="8" t="s">
         <v>1736</v>
       </c>
@@ -19496,7 +19497,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="258" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B258" s="4" t="s">
         <v>1737</v>
       </c>
@@ -19513,7 +19514,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="259" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B259" s="4" t="s">
         <v>1738</v>
       </c>
@@ -19530,7 +19531,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="260" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B260" s="8" t="s">
         <v>1739</v>
       </c>
@@ -19548,7 +19549,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="261" spans="2:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="2:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B261" s="4" t="s">
         <v>1740</v>
       </c>
@@ -19565,7 +19566,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="262" spans="2:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="2:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B262" s="4" t="s">
         <v>1741</v>
       </c>
@@ -19582,7 +19583,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="263" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B263" s="8" t="s">
         <v>1742</v>
       </c>
@@ -19600,7 +19601,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="264" spans="2:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="2:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B264" s="4" t="s">
         <v>1743</v>
       </c>
@@ -19617,7 +19618,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="265" spans="2:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="2:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B265" s="4" t="s">
         <v>1744</v>
       </c>
@@ -19634,7 +19635,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="266" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B266" s="8" t="s">
         <v>1745</v>
       </c>
@@ -19652,7 +19653,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="267" spans="2:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="2:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B267" s="4" t="s">
         <v>1746</v>
       </c>
@@ -19669,7 +19670,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="268" spans="2:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="2:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B268" s="4" t="s">
         <v>1747</v>
       </c>
@@ -19686,7 +19687,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="269" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B269" s="8" t="s">
         <v>1748</v>
       </c>
@@ -19704,7 +19705,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="270" spans="2:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="2:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B270" s="4" t="s">
         <v>1749</v>
       </c>
@@ -19721,7 +19722,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="271" spans="2:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="2:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B271" s="4" t="s">
         <v>1750</v>
       </c>
@@ -19738,7 +19739,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="272" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B272" s="8" t="s">
         <v>1751</v>
       </c>
@@ -19756,7 +19757,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B273" s="4" t="s">
         <v>1752</v>
       </c>
@@ -19773,7 +19774,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B274" s="4" t="s">
         <v>1753</v>
       </c>
@@ -19790,7 +19791,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="275" spans="1:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B275" s="8" t="s">
         <v>1754</v>
       </c>
@@ -19808,7 +19809,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B276" s="4" t="s">
         <v>1755</v>
       </c>
@@ -19825,7 +19826,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B277" s="4" t="s">
         <v>1756</v>
       </c>
@@ -19842,7 +19843,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="278" spans="1:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B278" s="8" t="s">
         <v>1757</v>
       </c>
@@ -19860,7 +19861,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B279" s="4" t="s">
         <v>1758</v>
       </c>
@@ -19877,7 +19878,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B280" s="4" t="s">
         <v>1759</v>
       </c>
@@ -19894,7 +19895,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="281" spans="1:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B281" s="8" t="s">
         <v>1760</v>
       </c>
@@ -19912,7 +19913,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B282" s="4" t="s">
         <v>1761</v>
       </c>
@@ -19929,7 +19930,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B283" s="4" t="s">
         <v>1762</v>
       </c>
@@ -19946,7 +19947,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="284" spans="1:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B284" s="8" t="s">
         <v>1763</v>
       </c>
@@ -19964,7 +19965,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B285" s="4" t="s">
         <v>1764</v>
       </c>
@@ -19981,7 +19982,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:7" ht="114" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B286" s="4" t="s">
         <v>1765</v>
       </c>
@@ -19998,7 +19999,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="287" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A287" s="3" t="s">
         <v>457</v>
       </c>
@@ -20006,7 +20007,7 @@
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
     </row>
-    <row r="288" spans="1:7" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:7" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B288" s="4" t="s">
         <v>381</v>
       </c>
@@ -20023,7 +20024,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:7" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B289" s="4" t="s">
         <v>382</v>
       </c>
@@ -20040,7 +20041,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:7" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B290" s="4" t="s">
         <v>383</v>
       </c>
@@ -20060,7 +20061,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="291" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A291" s="3" t="s">
         <v>458</v>
       </c>
@@ -20068,7 +20069,7 @@
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
     </row>
-    <row r="292" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B292" s="4" t="s">
         <v>413</v>
       </c>
@@ -20088,7 +20089,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B293" s="4" t="s">
         <v>414</v>
       </c>
@@ -20108,7 +20109,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B294" s="4" t="s">
         <v>412</v>
       </c>
@@ -20128,7 +20129,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="295" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A295" s="3" t="s">
         <v>460</v>
       </c>
@@ -20136,7 +20137,7 @@
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
     </row>
-    <row r="296" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B296" s="4" t="s">
         <v>373</v>
       </c>
@@ -20153,7 +20154,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:7" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B297" s="4" t="s">
         <v>374</v>
       </c>
@@ -20170,7 +20171,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B298" s="4" t="s">
         <v>372</v>
       </c>
@@ -20187,7 +20188,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B299" s="4" t="s">
         <v>364</v>
       </c>
@@ -20204,7 +20205,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B300" s="4" t="s">
         <v>365</v>
       </c>
@@ -20221,7 +20222,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B301" s="4" t="s">
         <v>359</v>
       </c>
@@ -20238,7 +20239,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B302" s="4" t="s">
         <v>354</v>
       </c>
@@ -20255,7 +20256,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B303" s="4" t="s">
         <v>353</v>
       </c>
@@ -20272,7 +20273,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="304" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A304" s="3" t="s">
         <v>461</v>
       </c>
@@ -20280,7 +20281,7 @@
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
     </row>
-    <row r="305" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B305" s="4" t="s">
         <v>33</v>
       </c>
@@ -20294,7 +20295,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B306" s="4" t="s">
         <v>34</v>
       </c>
@@ -20308,7 +20309,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B307" s="4" t="s">
         <v>35</v>
       </c>
@@ -20322,7 +20323,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B308" s="4" t="s">
         <v>30</v>
       </c>
@@ -20336,7 +20337,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B309" s="4" t="s">
         <v>31</v>
       </c>
@@ -20350,7 +20351,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B310" s="4" t="s">
         <v>32</v>
       </c>
@@ -20364,7 +20365,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B311" s="4" t="s">
         <v>27</v>
       </c>
@@ -20378,7 +20379,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B312" s="4" t="s">
         <v>28</v>
       </c>
@@ -20392,7 +20393,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B313" s="4" t="s">
         <v>29</v>
       </c>
@@ -20406,7 +20407,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B314" s="4" t="s">
         <v>24</v>
       </c>
@@ -20420,7 +20421,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B315" s="4" t="s">
         <v>25</v>
       </c>
@@ -20434,7 +20435,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B316" s="4" t="s">
         <v>26</v>
       </c>
@@ -20448,7 +20449,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="317" spans="1:6" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A317" s="3" t="s">
         <v>462</v>
       </c>
@@ -20456,7 +20457,7 @@
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
     </row>
-    <row r="318" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B318" s="4" t="s">
         <v>411</v>
       </c>
@@ -20473,7 +20474,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B319" s="4" t="s">
         <v>77</v>
       </c>
@@ -20487,7 +20488,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B320" s="4" t="s">
         <v>76</v>
       </c>
@@ -20501,7 +20502,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="321" spans="1:6" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A321" s="3" t="s">
         <v>464</v>
       </c>
@@ -20509,7 +20510,7 @@
       <c r="D321" s="6"/>
       <c r="E321" s="6"/>
     </row>
-    <row r="322" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B322" s="4" t="s">
         <v>415</v>
       </c>
@@ -20526,7 +20527,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B323" s="4" t="s">
         <v>241</v>
       </c>
@@ -20540,7 +20541,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B324" s="4" t="s">
         <v>240</v>
       </c>
@@ -20554,7 +20555,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="325" spans="1:6" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A325" s="3" t="s">
         <v>514</v>
       </c>
@@ -20562,7 +20563,7 @@
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
     </row>
-    <row r="326" spans="1:6" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B326" s="4" t="s">
         <v>439</v>
       </c>
@@ -20579,7 +20580,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B327" s="4" t="s">
         <v>440</v>
       </c>
@@ -20596,7 +20597,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B328" s="4" t="s">
         <v>436</v>
       </c>
@@ -20613,7 +20614,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="329" spans="1:6" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A329" s="3" t="s">
         <v>463</v>
       </c>
@@ -20621,7 +20622,7 @@
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
     </row>
-    <row r="330" spans="1:6" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B330" s="4" t="s">
         <v>349</v>
       </c>
@@ -20635,7 +20636,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B331" s="4" t="s">
         <v>350</v>
       </c>
@@ -20649,7 +20650,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B332" s="4" t="s">
         <v>351</v>
       </c>
@@ -20663,7 +20664,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B333" s="4" t="s">
         <v>425</v>
       </c>
@@ -20680,7 +20681,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B334" s="4" t="s">
         <v>428</v>
       </c>
@@ -20697,7 +20698,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B335" s="4" t="s">
         <v>424</v>
       </c>
@@ -20714,7 +20715,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B336" s="4" t="s">
         <v>346</v>
       </c>
@@ -20728,7 +20729,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="337" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B337" s="4" t="s">
         <v>347</v>
       </c>
@@ -20742,7 +20743,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B338" s="4" t="s">
         <v>348</v>
       </c>
@@ -20756,7 +20757,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B339" s="4" t="s">
         <v>427</v>
       </c>
@@ -20773,7 +20774,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:7" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B340" s="4" t="s">
         <v>426</v>
       </c>
@@ -20790,7 +20791,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:7" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B341" s="4" t="s">
         <v>429</v>
       </c>
@@ -20807,7 +20808,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B342" s="4" t="s">
         <v>343</v>
       </c>
@@ -20821,7 +20822,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="343" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B343" s="4" t="s">
         <v>344</v>
       </c>
@@ -20835,7 +20836,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="57" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:7" ht="57" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B344" s="4" t="s">
         <v>345</v>
       </c>
@@ -20849,7 +20850,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="345" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B345" s="4" t="s">
         <v>340</v>
       </c>
@@ -20863,7 +20864,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="346" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B346" s="4" t="s">
         <v>341</v>
       </c>
@@ -20877,7 +20878,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="57" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:7" ht="57" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B347" s="4" t="s">
         <v>342</v>
       </c>
@@ -20891,7 +20892,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="348" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A348" s="3" t="s">
         <v>465</v>
       </c>
@@ -20899,7 +20900,7 @@
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
     </row>
-    <row r="349" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B349" s="4" t="s">
         <v>271</v>
       </c>
@@ -20916,7 +20917,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B350" s="4" t="s">
         <v>272</v>
       </c>
@@ -20933,7 +20934,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B351" s="4" t="s">
         <v>273</v>
       </c>
@@ -20950,7 +20951,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="352" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B352" s="4" t="s">
         <v>277</v>
       </c>
@@ -20967,7 +20968,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="353" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B353" s="4" t="s">
         <v>278</v>
       </c>
@@ -20984,7 +20985,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="354" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B354" s="4" t="s">
         <v>279</v>
       </c>
@@ -21001,7 +21002,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="355" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B355" s="4" t="s">
         <v>283</v>
       </c>
@@ -21018,7 +21019,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="356" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B356" s="4" t="s">
         <v>284</v>
       </c>
@@ -21035,7 +21036,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="357" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B357" s="4" t="s">
         <v>285</v>
       </c>
@@ -21052,7 +21053,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="358" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B358" s="4" t="s">
         <v>289</v>
       </c>
@@ -21069,7 +21070,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="359" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B359" s="4" t="s">
         <v>290</v>
       </c>
@@ -21086,7 +21087,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="360" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B360" s="4" t="s">
         <v>291</v>
       </c>
@@ -21103,7 +21104,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="361" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B361" s="4" t="s">
         <v>295</v>
       </c>
@@ -21120,7 +21121,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="362" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B362" s="4" t="s">
         <v>296</v>
       </c>
@@ -21137,7 +21138,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="363" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B363" s="4" t="s">
         <v>297</v>
       </c>
@@ -21154,7 +21155,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="364" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B364" s="4" t="s">
         <v>301</v>
       </c>
@@ -21171,7 +21172,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="365" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B365" s="4" t="s">
         <v>302</v>
       </c>
@@ -21188,7 +21189,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="366" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B366" s="4" t="s">
         <v>303</v>
       </c>
@@ -21205,7 +21206,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="367" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B367" s="4" t="s">
         <v>307</v>
       </c>
@@ -21222,7 +21223,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="368" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B368" s="4" t="s">
         <v>308</v>
       </c>
@@ -21239,7 +21240,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="369" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B369" s="4" t="s">
         <v>309</v>
       </c>
@@ -21256,7 +21257,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="370" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B370" s="4" t="s">
         <v>313</v>
       </c>
@@ -21273,7 +21274,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="371" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B371" s="4" t="s">
         <v>314</v>
       </c>
@@ -21290,7 +21291,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="372" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B372" s="4" t="s">
         <v>315</v>
       </c>
@@ -21307,7 +21308,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="373" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B373" s="4" t="s">
         <v>319</v>
       </c>
@@ -21324,7 +21325,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="374" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B374" s="4" t="s">
         <v>320</v>
       </c>
@@ -21341,7 +21342,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="375" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B375" s="4" t="s">
         <v>321</v>
       </c>
@@ -21358,7 +21359,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="376" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B376" s="8" t="s">
         <v>1408</v>
       </c>
@@ -21376,7 +21377,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="377" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B377" s="4" t="s">
         <v>1418</v>
       </c>
@@ -21393,7 +21394,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="378" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B378" s="4" t="s">
         <v>1419</v>
       </c>
@@ -21410,7 +21411,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="379" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B379" s="8" t="s">
         <v>1420</v>
       </c>
@@ -21428,7 +21429,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="380" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B380" s="4" t="s">
         <v>1421</v>
       </c>
@@ -21445,7 +21446,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="381" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B381" s="4" t="s">
         <v>1422</v>
       </c>
@@ -21462,7 +21463,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="382" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B382" s="8" t="s">
         <v>1429</v>
       </c>
@@ -21480,7 +21481,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="383" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B383" s="4" t="s">
         <v>1430</v>
       </c>
@@ -21497,7 +21498,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="384" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B384" s="4" t="s">
         <v>1431</v>
       </c>
@@ -21514,7 +21515,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="385" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B385" s="8" t="s">
         <v>1432</v>
       </c>
@@ -21532,7 +21533,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="386" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B386" s="4" t="s">
         <v>1433</v>
       </c>
@@ -21549,7 +21550,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="387" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B387" s="4" t="s">
         <v>1434</v>
       </c>
@@ -21566,7 +21567,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="388" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B388" s="8" t="s">
         <v>1456</v>
       </c>
@@ -21583,7 +21584,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="389" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B389" s="4" t="s">
         <v>1457</v>
       </c>
@@ -21600,7 +21601,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="390" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B390" s="4" t="s">
         <v>1458</v>
       </c>
@@ -21617,7 +21618,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="391" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B391" s="8" t="s">
         <v>1459</v>
       </c>
@@ -21634,7 +21635,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="392" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B392" s="4" t="s">
         <v>1460</v>
       </c>
@@ -21651,7 +21652,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="393" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B393" s="4" t="s">
         <v>1461</v>
       </c>
@@ -21668,7 +21669,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="394" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B394" s="8" t="s">
         <v>1462</v>
       </c>
@@ -21685,7 +21686,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="395" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B395" s="4" t="s">
         <v>1463</v>
       </c>
@@ -21702,7 +21703,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="396" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B396" s="4" t="s">
         <v>1464</v>
       </c>
@@ -21719,7 +21720,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="397" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B397" s="8" t="s">
         <v>1465</v>
       </c>
@@ -21736,7 +21737,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="398" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B398" s="4" t="s">
         <v>1466</v>
       </c>
@@ -21753,7 +21754,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="399" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B399" s="4" t="s">
         <v>1467</v>
       </c>
@@ -21770,7 +21771,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="400" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B400" s="8" t="s">
         <v>1468</v>
       </c>
@@ -21787,7 +21788,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="401" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B401" s="4" t="s">
         <v>1469</v>
       </c>
@@ -21804,7 +21805,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="402" spans="2:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="2:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B402" s="4" t="s">
         <v>1470</v>
       </c>
@@ -21821,7 +21822,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="403" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B403" s="8" t="s">
         <v>1471</v>
       </c>
@@ -21839,7 +21840,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="404" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B404" s="8" t="s">
         <v>1472</v>
       </c>
@@ -21857,7 +21858,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="405" spans="2:7" s="8" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="2:7" s="8" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B405" s="8" t="s">
         <v>1473</v>
       </c>
@@ -21875,7 +21876,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="406" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B406" s="8" t="s">
         <v>1474</v>
       </c>
@@ -21893,7 +21894,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="407" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B407" s="8" t="s">
         <v>1475</v>
       </c>
@@ -21911,7 +21912,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="408" spans="2:7" s="8" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="2:7" s="8" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B408" s="8" t="s">
         <v>1476</v>
       </c>
@@ -21929,7 +21930,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="409" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B409" s="8" t="s">
         <v>1477</v>
       </c>
@@ -21947,7 +21948,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="410" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B410" s="8" t="s">
         <v>1478</v>
       </c>
@@ -21965,7 +21966,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="411" spans="2:7" s="8" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="2:7" s="8" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B411" s="8" t="s">
         <v>1479</v>
       </c>
@@ -21983,7 +21984,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="412" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B412" s="8" t="s">
         <v>1480</v>
       </c>
@@ -22001,7 +22002,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="413" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B413" s="8" t="s">
         <v>1481</v>
       </c>
@@ -22019,7 +22020,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="414" spans="2:7" s="8" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="2:7" s="8" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B414" s="8" t="s">
         <v>1482</v>
       </c>
@@ -22037,7 +22038,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="415" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B415" s="8" t="s">
         <v>1483</v>
       </c>
@@ -22055,7 +22056,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="416" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B416" s="8" t="s">
         <v>1484</v>
       </c>
@@ -22073,7 +22074,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="417" spans="2:7" s="8" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="2:7" s="8" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B417" s="8" t="s">
         <v>1485</v>
       </c>
@@ -22091,7 +22092,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="418" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B418" s="8" t="s">
         <v>1486</v>
       </c>
@@ -22109,7 +22110,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="419" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B419" s="8" t="s">
         <v>1487</v>
       </c>
@@ -22127,7 +22128,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="420" spans="2:7" s="8" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="2:7" s="8" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B420" s="8" t="s">
         <v>1488</v>
       </c>
@@ -22145,7 +22146,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="421" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B421" s="8" t="s">
         <v>1489</v>
       </c>
@@ -22163,7 +22164,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="422" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B422" s="8" t="s">
         <v>1490</v>
       </c>
@@ -22181,7 +22182,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="423" spans="2:7" s="8" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="2:7" s="8" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B423" s="8" t="s">
         <v>1491</v>
       </c>
@@ -22199,7 +22200,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="424" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B424" s="8" t="s">
         <v>1492</v>
       </c>
@@ -22217,7 +22218,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="425" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B425" s="8" t="s">
         <v>1493</v>
       </c>
@@ -22235,7 +22236,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="426" spans="2:7" s="8" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="2:7" s="8" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B426" s="8" t="s">
         <v>1494</v>
       </c>
@@ -22253,7 +22254,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="427" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B427" s="8" t="s">
         <v>1495</v>
       </c>
@@ -22271,7 +22272,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="428" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B428" s="8" t="s">
         <v>1496</v>
       </c>
@@ -22289,7 +22290,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="429" spans="2:7" s="8" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="2:7" s="8" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B429" s="8" t="s">
         <v>1497</v>
       </c>
@@ -22307,7 +22308,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="430" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B430" s="8" t="s">
         <v>1410</v>
       </c>
@@ -22325,7 +22326,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="431" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B431" s="8" t="s">
         <v>1498</v>
       </c>
@@ -22343,7 +22344,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="432" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B432" s="8" t="s">
         <v>1499</v>
       </c>
@@ -22361,7 +22362,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="433" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B433" s="8" t="s">
         <v>1503</v>
       </c>
@@ -22379,7 +22380,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="434" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B434" s="8" t="s">
         <v>1504</v>
       </c>
@@ -22397,7 +22398,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="435" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B435" s="8" t="s">
         <v>1505</v>
       </c>
@@ -22415,7 +22416,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="436" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B436" s="8" t="s">
         <v>1506</v>
       </c>
@@ -22433,7 +22434,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="437" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B437" s="8" t="s">
         <v>1516</v>
       </c>
@@ -22451,7 +22452,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="438" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B438" s="8" t="s">
         <v>1517</v>
       </c>
@@ -22469,7 +22470,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="439" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B439" s="8" t="s">
         <v>1518</v>
       </c>
@@ -22487,7 +22488,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="440" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B440" s="8" t="s">
         <v>1507</v>
       </c>
@@ -22505,7 +22506,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="441" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B441" s="8" t="s">
         <v>1519</v>
       </c>
@@ -22523,7 +22524,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="442" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B442" s="8" t="s">
         <v>1509</v>
       </c>
@@ -22541,7 +22542,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="443" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B443" s="8" t="s">
         <v>1520</v>
       </c>
@@ -22559,7 +22560,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="444" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B444" s="8" t="s">
         <v>1508</v>
       </c>
@@ -22577,7 +22578,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="445" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B445" s="8" t="s">
         <v>1512</v>
       </c>
@@ -22595,7 +22596,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="446" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B446" s="8" t="s">
         <v>1510</v>
       </c>
@@ -22613,7 +22614,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="447" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B447" s="8" t="s">
         <v>1511</v>
       </c>
@@ -22631,7 +22632,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="448" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B448" s="8" t="s">
         <v>1521</v>
       </c>
@@ -22649,7 +22650,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="449" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B449" s="8" t="s">
         <v>1513</v>
       </c>
@@ -22667,7 +22668,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="450" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B450" s="8" t="s">
         <v>1514</v>
       </c>
@@ -22685,7 +22686,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="451" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B451" s="8" t="s">
         <v>1515</v>
       </c>
@@ -22703,7 +22704,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="452" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B452" s="8" t="s">
         <v>1522</v>
       </c>
@@ -22721,7 +22722,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="453" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B453" s="8" t="s">
         <v>1523</v>
       </c>
@@ -22739,7 +22740,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="454" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B454" s="8" t="s">
         <v>1524</v>
       </c>
@@ -22757,7 +22758,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="455" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B455" s="8" t="s">
         <v>1525</v>
       </c>
@@ -22775,7 +22776,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="456" spans="2:7" s="8" customFormat="1" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="2:7" s="8" customFormat="1" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B456" s="8" t="s">
         <v>1526</v>
       </c>
@@ -22793,7 +22794,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="457" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B457" s="8" t="s">
         <v>1543</v>
       </c>
@@ -22811,7 +22812,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="458" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B458" s="8" t="s">
         <v>1544</v>
       </c>
@@ -22829,7 +22830,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="459" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B459" s="8" t="s">
         <v>1545</v>
       </c>
@@ -22847,7 +22848,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="460" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B460" s="8" t="s">
         <v>1546</v>
       </c>
@@ -22865,7 +22866,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="461" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B461" s="8" t="s">
         <v>1547</v>
       </c>
@@ -22883,7 +22884,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="462" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B462" s="8" t="s">
         <v>1548</v>
       </c>
@@ -22901,7 +22902,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="463" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B463" s="8" t="s">
         <v>1549</v>
       </c>
@@ -22919,7 +22920,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="464" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B464" s="8" t="s">
         <v>1550</v>
       </c>
@@ -22937,7 +22938,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="465" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B465" s="8" t="s">
         <v>1551</v>
       </c>
@@ -22955,7 +22956,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="466" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B466" s="8" t="s">
         <v>1552</v>
       </c>
@@ -22973,7 +22974,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="467" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B467" s="8" t="s">
         <v>1553</v>
       </c>
@@ -22991,7 +22992,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="468" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B468" s="8" t="s">
         <v>1554</v>
       </c>
@@ -23009,7 +23010,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="469" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B469" s="8" t="s">
         <v>1555</v>
       </c>
@@ -23027,7 +23028,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="470" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B470" s="8" t="s">
         <v>1556</v>
       </c>
@@ -23045,7 +23046,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="471" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B471" s="8" t="s">
         <v>1557</v>
       </c>
@@ -23063,7 +23064,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B472" s="8" t="s">
         <v>1558</v>
       </c>
@@ -23081,7 +23082,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B473" s="8" t="s">
         <v>1559</v>
       </c>
@@ -23099,7 +23100,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="474" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B474" s="8" t="s">
         <v>1560</v>
       </c>
@@ -23117,7 +23118,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="475" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B475" s="8" t="s">
         <v>1561</v>
       </c>
@@ -23135,7 +23136,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="476" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B476" s="8" t="s">
         <v>1562</v>
       </c>
@@ -23153,7 +23154,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="477" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B477" s="8" t="s">
         <v>1563</v>
       </c>
@@ -23171,7 +23172,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="478" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B478" s="8" t="s">
         <v>1564</v>
       </c>
@@ -23189,7 +23190,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="479" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B479" s="8" t="s">
         <v>1565</v>
       </c>
@@ -23207,7 +23208,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="480" spans="2:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="2:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B480" s="8" t="s">
         <v>1566</v>
       </c>
@@ -23225,7 +23226,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="481" spans="1:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B481" s="8" t="s">
         <v>1567</v>
       </c>
@@ -23243,7 +23244,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="482" spans="1:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B482" s="8" t="s">
         <v>1568</v>
       </c>
@@ -23261,7 +23262,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="483" spans="1:7" s="8" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:7" s="8" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B483" s="8" t="s">
         <v>1569</v>
       </c>
@@ -23279,7 +23280,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="484" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A484" s="3" t="s">
         <v>475</v>
       </c>
@@ -23287,7 +23288,7 @@
       <c r="D484" s="6"/>
       <c r="E484" s="6"/>
     </row>
-    <row r="485" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B485" s="4" t="s">
         <v>54</v>
       </c>
@@ -23301,7 +23302,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="486" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B486" s="4" t="s">
         <v>55</v>
       </c>
@@ -23315,7 +23316,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="487" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B487" s="4" t="s">
         <v>56</v>
       </c>
@@ -23329,7 +23330,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="488" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B488" s="4" t="s">
         <v>387</v>
       </c>
@@ -23346,7 +23347,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="489" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B489" s="4" t="s">
         <v>388</v>
       </c>
@@ -23363,7 +23364,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="490" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B490" s="4" t="s">
         <v>384</v>
       </c>
@@ -23380,7 +23381,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="491" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B491" s="4" t="s">
         <v>58</v>
       </c>
@@ -23394,7 +23395,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="492" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B492" s="4" t="s">
         <v>60</v>
       </c>
@@ -23408,7 +23409,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B493" s="4" t="s">
         <v>62</v>
       </c>
@@ -23422,7 +23423,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B494" s="4" t="s">
         <v>57</v>
       </c>
@@ -23436,7 +23437,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="495" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B495" s="4" t="s">
         <v>59</v>
       </c>
@@ -23450,7 +23451,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="496" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B496" s="4" t="s">
         <v>61</v>
       </c>
@@ -23464,7 +23465,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="497" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B497" s="4" t="s">
         <v>49</v>
       </c>
@@ -23478,7 +23479,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="498" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B498" s="4" t="s">
         <v>51</v>
       </c>
@@ -23492,7 +23493,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="499" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B499" s="4" t="s">
         <v>53</v>
       </c>
@@ -23506,7 +23507,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="500" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B500" s="4" t="s">
         <v>48</v>
       </c>
@@ -23520,7 +23521,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="501" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B501" s="4" t="s">
         <v>50</v>
       </c>
@@ -23534,7 +23535,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="502" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B502" s="4" t="s">
         <v>52</v>
       </c>
@@ -23548,7 +23549,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="503" spans="2:6" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="2:6" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B503" s="4" t="s">
         <v>386</v>
       </c>
@@ -23565,7 +23566,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="504" spans="2:6" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="2:6" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B504" s="4" t="s">
         <v>385</v>
       </c>
@@ -23582,7 +23583,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="505" spans="2:6" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="2:6" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B505" s="4" t="s">
         <v>389</v>
       </c>
@@ -23599,7 +23600,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="506" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B506" s="4" t="s">
         <v>43</v>
       </c>
@@ -23613,7 +23614,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="507" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B507" s="4" t="s">
         <v>45</v>
       </c>
@@ -23627,7 +23628,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="508" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B508" s="4" t="s">
         <v>47</v>
       </c>
@@ -23641,7 +23642,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="509" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B509" s="4" t="s">
         <v>42</v>
       </c>
@@ -23655,7 +23656,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="510" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B510" s="4" t="s">
         <v>44</v>
       </c>
@@ -23669,7 +23670,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="511" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B511" s="4" t="s">
         <v>46</v>
       </c>
@@ -23683,7 +23684,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="512" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B512" s="4" t="s">
         <v>37</v>
       </c>
@@ -23697,7 +23698,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B513" s="4" t="s">
         <v>39</v>
       </c>
@@ -23711,7 +23712,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B514" s="4" t="s">
         <v>41</v>
       </c>
@@ -23725,7 +23726,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B515" s="4" t="s">
         <v>36</v>
       </c>
@@ -23739,7 +23740,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B516" s="4" t="s">
         <v>38</v>
       </c>
@@ -23753,7 +23754,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B517" s="4" t="s">
         <v>40</v>
       </c>
@@ -23767,7 +23768,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="518" spans="1:6" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A518" s="3" t="s">
         <v>476</v>
       </c>
@@ -23775,7 +23776,7 @@
       <c r="D518" s="6"/>
       <c r="E518" s="6"/>
     </row>
-    <row r="519" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B519" s="4" t="s">
         <v>67</v>
       </c>
@@ -23789,7 +23790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B520" s="4" t="s">
         <v>73</v>
       </c>
@@ -23803,7 +23804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B521" s="4" t="s">
         <v>393</v>
       </c>
@@ -23820,7 +23821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B522" s="4" t="s">
         <v>64</v>
       </c>
@@ -23834,7 +23835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B523" s="4" t="s">
         <v>70</v>
       </c>
@@ -23848,7 +23849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B524" s="4" t="s">
         <v>402</v>
       </c>
@@ -23865,7 +23866,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="525" spans="1:6" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B525" s="4" t="s">
         <v>405</v>
       </c>
@@ -23882,7 +23883,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B526" s="4" t="s">
         <v>408</v>
       </c>
@@ -23899,7 +23900,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="527" spans="1:6" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B527" s="4" t="s">
         <v>396</v>
       </c>
@@ -23916,7 +23917,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B528" s="4" t="s">
         <v>399</v>
       </c>
@@ -23933,7 +23934,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="529" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A529" s="3" t="s">
         <v>478</v>
       </c>
@@ -23941,7 +23942,7 @@
       <c r="D529" s="6"/>
       <c r="E529" s="6"/>
     </row>
-    <row r="530" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B530" s="4" t="s">
         <v>68</v>
       </c>
@@ -23955,7 +23956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B531" s="4" t="s">
         <v>74</v>
       </c>
@@ -23969,7 +23970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B532" s="4" t="s">
         <v>394</v>
       </c>
@@ -23986,7 +23987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B533" s="4" t="s">
         <v>65</v>
       </c>
@@ -24000,7 +24001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B534" s="4" t="s">
         <v>71</v>
       </c>
@@ -24014,7 +24015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B535" s="4" t="s">
         <v>403</v>
       </c>
@@ -24031,7 +24032,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B536" s="4" t="s">
         <v>406</v>
       </c>
@@ -24048,7 +24049,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="537" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B537" s="4" t="s">
         <v>409</v>
       </c>
@@ -24065,7 +24066,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B538" s="4" t="s">
         <v>397</v>
       </c>
@@ -24082,7 +24083,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B539" s="4" t="s">
         <v>400</v>
       </c>
@@ -24099,7 +24100,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="540" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A540" s="3" t="s">
         <v>480</v>
       </c>
@@ -24107,7 +24108,7 @@
       <c r="D540" s="6"/>
       <c r="E540" s="6"/>
     </row>
-    <row r="541" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B541" s="4" t="s">
         <v>69</v>
       </c>
@@ -24124,7 +24125,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="542" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B542" s="4" t="s">
         <v>75</v>
       </c>
@@ -24141,7 +24142,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="543" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B543" s="4" t="s">
         <v>395</v>
       </c>
@@ -24161,7 +24162,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="544" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B544" s="4" t="s">
         <v>66</v>
       </c>
@@ -24178,7 +24179,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="545" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B545" s="4" t="s">
         <v>72</v>
       </c>
@@ -24195,7 +24196,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B546" s="4" t="s">
         <v>404</v>
       </c>
@@ -24215,7 +24216,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B547" s="4" t="s">
         <v>407</v>
       </c>
@@ -24235,7 +24236,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="548" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B548" s="4" t="s">
         <v>410</v>
       </c>
@@ -24255,7 +24256,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B549" s="4" t="s">
         <v>398</v>
       </c>
@@ -24275,7 +24276,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="550" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B550" s="4" t="s">
         <v>401</v>
       </c>
@@ -24295,7 +24296,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="551" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A551" s="3" t="s">
         <v>477</v>
       </c>
@@ -24303,7 +24304,7 @@
       <c r="D551" s="6"/>
       <c r="E551" s="6"/>
     </row>
-    <row r="552" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B552" s="4" t="s">
         <v>87</v>
       </c>
@@ -24320,7 +24321,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="553" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B553" s="4" t="s">
         <v>90</v>
       </c>
@@ -24337,7 +24338,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="554" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B554" s="4" t="s">
         <v>93</v>
       </c>
@@ -24354,7 +24355,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="555" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B555" s="4" t="s">
         <v>105</v>
       </c>
@@ -24371,7 +24372,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="556" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B556" s="4" t="s">
         <v>108</v>
       </c>
@@ -24388,7 +24389,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="557" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B557" s="4" t="s">
         <v>111</v>
       </c>
@@ -24405,7 +24406,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="558" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B558" s="4" t="s">
         <v>123</v>
       </c>
@@ -24422,7 +24423,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="559" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B559" s="4" t="s">
         <v>126</v>
       </c>
@@ -24439,7 +24440,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="560" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B560" s="4" t="s">
         <v>129</v>
       </c>
@@ -24456,7 +24457,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="561" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B561" s="4" t="s">
         <v>141</v>
       </c>
@@ -24473,7 +24474,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="562" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="562" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B562" s="4" t="s">
         <v>144</v>
       </c>
@@ -24490,7 +24491,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="563" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="563" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B563" s="4" t="s">
         <v>147</v>
       </c>
@@ -24507,7 +24508,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="564" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B564" s="4" t="s">
         <v>159</v>
       </c>
@@ -24524,7 +24525,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="565" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B565" s="4" t="s">
         <v>162</v>
       </c>
@@ -24541,7 +24542,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="566" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B566" s="4" t="s">
         <v>165</v>
       </c>
@@ -24558,7 +24559,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="567" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B567" s="4" t="s">
         <v>177</v>
       </c>
@@ -24575,7 +24576,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="568" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B568" s="4" t="s">
         <v>180</v>
       </c>
@@ -24592,7 +24593,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="569" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="569" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B569" s="4" t="s">
         <v>183</v>
       </c>
@@ -24609,7 +24610,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="570" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="570" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B570" s="4" t="s">
         <v>195</v>
       </c>
@@ -24626,7 +24627,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="571" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B571" s="4" t="s">
         <v>198</v>
       </c>
@@ -24643,7 +24644,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="572" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="572" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B572" s="4" t="s">
         <v>201</v>
       </c>
@@ -24660,7 +24661,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="573" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B573" s="4" t="s">
         <v>213</v>
       </c>
@@ -24677,7 +24678,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="574" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B574" s="4" t="s">
         <v>216</v>
       </c>
@@ -24694,7 +24695,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="575" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="575" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B575" s="4" t="s">
         <v>219</v>
       </c>
@@ -24711,7 +24712,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="576" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B576" s="4" t="s">
         <v>231</v>
       </c>
@@ -24728,7 +24729,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="577" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B577" s="4" t="s">
         <v>234</v>
       </c>
@@ -24745,7 +24746,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="578" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B578" s="4" t="s">
         <v>237</v>
       </c>
@@ -24762,7 +24763,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="579" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B579" s="4" t="s">
         <v>1116</v>
       </c>
@@ -24779,7 +24780,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="580" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B580" s="4" t="s">
         <v>1117</v>
       </c>
@@ -24796,7 +24797,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="581" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="581" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B581" s="4" t="s">
         <v>1118</v>
       </c>
@@ -24813,7 +24814,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="582" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B582" s="4" t="s">
         <v>1119</v>
       </c>
@@ -24830,7 +24831,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="583" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B583" s="4" t="s">
         <v>1120</v>
       </c>
@@ -24847,7 +24848,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="584" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="584" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B584" s="4" t="s">
         <v>1121</v>
       </c>
@@ -24864,7 +24865,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="585" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B585" s="4" t="s">
         <v>1122</v>
       </c>
@@ -24881,7 +24882,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="586" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="586" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B586" s="4" t="s">
         <v>1123</v>
       </c>
@@ -24898,7 +24899,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="587" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B587" s="4" t="s">
         <v>1124</v>
       </c>
@@ -24915,7 +24916,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="588" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="588" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B588" s="4" t="s">
         <v>1125</v>
       </c>
@@ -24932,7 +24933,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="589" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="589" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B589" s="4" t="s">
         <v>1126</v>
       </c>
@@ -24949,7 +24950,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="590" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B590" s="4" t="s">
         <v>1127</v>
       </c>
@@ -24966,7 +24967,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="591" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B591" s="4" t="s">
         <v>1128</v>
       </c>
@@ -24983,7 +24984,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="592" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B592" s="4" t="s">
         <v>1129</v>
       </c>
@@ -25000,7 +25001,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="593" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B593" s="4" t="s">
         <v>1130</v>
       </c>
@@ -25017,7 +25018,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="594" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B594" s="4" t="s">
         <v>1131</v>
       </c>
@@ -25034,7 +25035,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="595" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B595" s="4" t="s">
         <v>1132</v>
       </c>
@@ -25051,7 +25052,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="596" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B596" s="4" t="s">
         <v>1133</v>
       </c>
@@ -25068,7 +25069,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="597" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B597" s="4" t="s">
         <v>1134</v>
       </c>
@@ -25085,7 +25086,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="598" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B598" s="4" t="s">
         <v>1135</v>
       </c>
@@ -25102,7 +25103,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="599" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B599" s="4" t="s">
         <v>1136</v>
       </c>
@@ -25119,7 +25120,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="600" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B600" s="4" t="s">
         <v>1137</v>
       </c>
@@ -25136,7 +25137,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="601" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B601" s="4" t="s">
         <v>1138</v>
       </c>
@@ -25153,7 +25154,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="602" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B602" s="4" t="s">
         <v>1139</v>
       </c>
@@ -25170,7 +25171,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="603" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B603" s="4" t="s">
         <v>1140</v>
       </c>
@@ -25187,7 +25188,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="604" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B604" s="4" t="s">
         <v>1141</v>
       </c>
@@ -25204,7 +25205,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="605" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B605" s="4" t="s">
         <v>1142</v>
       </c>
@@ -25221,7 +25222,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="606" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A606" s="3" t="s">
         <v>479</v>
       </c>
@@ -25229,7 +25230,7 @@
       <c r="D606" s="6"/>
       <c r="E606" s="6"/>
     </row>
-    <row r="607" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B607" s="4" t="s">
         <v>88</v>
       </c>
@@ -25246,7 +25247,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="608" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B608" s="4" t="s">
         <v>91</v>
       </c>
@@ -25263,7 +25264,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="609" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="609" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B609" s="4" t="s">
         <v>94</v>
       </c>
@@ -25280,7 +25281,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="610" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B610" s="4" t="s">
         <v>106</v>
       </c>
@@ -25297,7 +25298,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="611" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B611" s="4" t="s">
         <v>109</v>
       </c>
@@ -25314,7 +25315,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="612" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B612" s="4" t="s">
         <v>112</v>
       </c>
@@ -25331,7 +25332,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="613" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="613" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B613" s="4" t="s">
         <v>124</v>
       </c>
@@ -25348,7 +25349,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="614" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B614" s="4" t="s">
         <v>127</v>
       </c>
@@ -25365,7 +25366,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="615" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B615" s="4" t="s">
         <v>130</v>
       </c>
@@ -25382,7 +25383,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="616" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B616" s="4" t="s">
         <v>142</v>
       </c>
@@ -25399,7 +25400,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="617" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="617" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B617" s="4" t="s">
         <v>145</v>
       </c>
@@ -25416,7 +25417,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="618" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="618" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B618" s="4" t="s">
         <v>148</v>
       </c>
@@ -25433,7 +25434,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="619" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="619" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B619" s="4" t="s">
         <v>160</v>
       </c>
@@ -25450,7 +25451,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="620" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="620" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B620" s="4" t="s">
         <v>163</v>
       </c>
@@ -25467,7 +25468,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="621" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="621" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B621" s="4" t="s">
         <v>166</v>
       </c>
@@ -25484,7 +25485,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="622" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="622" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B622" s="4" t="s">
         <v>178</v>
       </c>
@@ -25501,7 +25502,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="623" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="623" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B623" s="4" t="s">
         <v>181</v>
       </c>
@@ -25518,7 +25519,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="624" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B624" s="4" t="s">
         <v>184</v>
       </c>
@@ -25535,7 +25536,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="625" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B625" s="4" t="s">
         <v>196</v>
       </c>
@@ -25552,7 +25553,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="626" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B626" s="4" t="s">
         <v>199</v>
       </c>
@@ -25569,7 +25570,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="627" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B627" s="4" t="s">
         <v>202</v>
       </c>
@@ -25586,7 +25587,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="628" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B628" s="4" t="s">
         <v>214</v>
       </c>
@@ -25603,7 +25604,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="629" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B629" s="4" t="s">
         <v>217</v>
       </c>
@@ -25620,7 +25621,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="630" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B630" s="4" t="s">
         <v>220</v>
       </c>
@@ -25637,7 +25638,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="631" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="631" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B631" s="4" t="s">
         <v>232</v>
       </c>
@@ -25654,7 +25655,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="632" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="632" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B632" s="4" t="s">
         <v>235</v>
       </c>
@@ -25671,7 +25672,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="633" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="633" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B633" s="4" t="s">
         <v>238</v>
       </c>
@@ -25688,7 +25689,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="634" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="634" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B634" s="4" t="s">
         <v>1143</v>
       </c>
@@ -25705,7 +25706,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="635" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="635" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B635" s="4" t="s">
         <v>1144</v>
       </c>
@@ -25722,7 +25723,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="636" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="636" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B636" s="4" t="s">
         <v>1145</v>
       </c>
@@ -25739,7 +25740,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="637" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="637" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B637" s="4" t="s">
         <v>1146</v>
       </c>
@@ -25756,7 +25757,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="638" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="638" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B638" s="4" t="s">
         <v>1147</v>
       </c>
@@ -25773,7 +25774,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="639" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B639" s="4" t="s">
         <v>1148</v>
       </c>
@@ -25790,7 +25791,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="640" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="640" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B640" s="4" t="s">
         <v>1149</v>
       </c>
@@ -25807,7 +25808,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="641" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="641" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B641" s="4" t="s">
         <v>1150</v>
       </c>
@@ -25824,7 +25825,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="642" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="642" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B642" s="4" t="s">
         <v>1151</v>
       </c>
@@ -25841,7 +25842,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="643" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="643" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B643" s="4" t="s">
         <v>1152</v>
       </c>
@@ -25858,7 +25859,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="644" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B644" s="4" t="s">
         <v>1153</v>
       </c>
@@ -25875,7 +25876,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="645" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="645" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B645" s="4" t="s">
         <v>1154</v>
       </c>
@@ -25892,7 +25893,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="646" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="646" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B646" s="4" t="s">
         <v>1155</v>
       </c>
@@ -25909,7 +25910,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="647" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="647" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B647" s="4" t="s">
         <v>1156</v>
       </c>
@@ -25926,7 +25927,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="648" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="648" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B648" s="4" t="s">
         <v>1157</v>
       </c>
@@ -25943,7 +25944,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="649" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="649" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B649" s="4" t="s">
         <v>1158</v>
       </c>
@@ -25960,7 +25961,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="650" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B650" s="4" t="s">
         <v>1159</v>
       </c>
@@ -25977,7 +25978,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="651" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="651" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B651" s="4" t="s">
         <v>1160</v>
       </c>
@@ -25994,7 +25995,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="652" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="652" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B652" s="4" t="s">
         <v>1161</v>
       </c>
@@ -26011,7 +26012,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="653" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="653" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B653" s="4" t="s">
         <v>1162</v>
       </c>
@@ -26028,7 +26029,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="654" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="654" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B654" s="4" t="s">
         <v>1163</v>
       </c>
@@ -26045,7 +26046,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="655" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="655" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B655" s="4" t="s">
         <v>1164</v>
       </c>
@@ -26062,7 +26063,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="656" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="656" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B656" s="4" t="s">
         <v>1165</v>
       </c>
@@ -26079,7 +26080,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="657" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B657" s="4" t="s">
         <v>1166</v>
       </c>
@@ -26096,7 +26097,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="658" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B658" s="4" t="s">
         <v>1167</v>
       </c>
@@ -26113,7 +26114,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="659" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B659" s="4" t="s">
         <v>1168</v>
       </c>
@@ -26130,7 +26131,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="660" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B660" s="4" t="s">
         <v>1169</v>
       </c>
@@ -26147,7 +26148,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="661" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A661" s="3" t="s">
         <v>481</v>
       </c>
@@ -26155,7 +26156,7 @@
       <c r="D661" s="6"/>
       <c r="E661" s="6"/>
     </row>
-    <row r="662" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B662" s="4" t="s">
         <v>89</v>
       </c>
@@ -26172,7 +26173,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="663" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B663" s="4" t="s">
         <v>92</v>
       </c>
@@ -26189,7 +26190,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="664" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B664" s="4" t="s">
         <v>95</v>
       </c>
@@ -26206,7 +26207,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="665" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B665" s="4" t="s">
         <v>107</v>
       </c>
@@ -26223,7 +26224,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="666" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B666" s="4" t="s">
         <v>110</v>
       </c>
@@ -26240,7 +26241,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="667" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B667" s="4" t="s">
         <v>113</v>
       </c>
@@ -26257,7 +26258,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="668" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B668" s="4" t="s">
         <v>125</v>
       </c>
@@ -26274,7 +26275,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="669" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B669" s="4" t="s">
         <v>128</v>
       </c>
@@ -26291,7 +26292,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="670" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B670" s="4" t="s">
         <v>131</v>
       </c>
@@ -26308,7 +26309,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="671" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B671" s="4" t="s">
         <v>143</v>
       </c>
@@ -26325,7 +26326,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="672" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B672" s="4" t="s">
         <v>146</v>
       </c>
@@ -26342,7 +26343,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="673" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="673" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B673" s="4" t="s">
         <v>149</v>
       </c>
@@ -26359,7 +26360,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="674" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B674" s="4" t="s">
         <v>161</v>
       </c>
@@ -26376,7 +26377,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="675" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="675" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B675" s="4" t="s">
         <v>164</v>
       </c>
@@ -26393,7 +26394,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="676" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="676" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B676" s="4" t="s">
         <v>167</v>
       </c>
@@ -26410,7 +26411,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="677" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="677" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B677" s="4" t="s">
         <v>179</v>
       </c>
@@ -26427,7 +26428,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="678" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="678" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B678" s="4" t="s">
         <v>182</v>
       </c>
@@ -26444,7 +26445,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="679" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="679" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B679" s="4" t="s">
         <v>185</v>
       </c>
@@ -26461,7 +26462,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="680" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="680" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B680" s="4" t="s">
         <v>197</v>
       </c>
@@ -26478,7 +26479,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="681" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="681" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B681" s="4" t="s">
         <v>200</v>
       </c>
@@ -26495,7 +26496,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="682" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="682" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B682" s="4" t="s">
         <v>203</v>
       </c>
@@ -26512,7 +26513,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="683" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="683" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B683" s="4" t="s">
         <v>215</v>
       </c>
@@ -26529,7 +26530,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="684" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="684" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B684" s="4" t="s">
         <v>218</v>
       </c>
@@ -26546,7 +26547,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="685" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="685" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B685" s="4" t="s">
         <v>221</v>
       </c>
@@ -26563,7 +26564,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="686" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="686" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B686" s="4" t="s">
         <v>233</v>
       </c>
@@ -26580,7 +26581,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="687" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="687" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B687" s="4" t="s">
         <v>236</v>
       </c>
@@ -26597,7 +26598,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="688" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="688" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B688" s="4" t="s">
         <v>239</v>
       </c>
@@ -26614,7 +26615,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="689" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="689" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B689" s="4" t="s">
         <v>1170</v>
       </c>
@@ -26631,7 +26632,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="690" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="690" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B690" s="4" t="s">
         <v>1171</v>
       </c>
@@ -26648,7 +26649,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="691" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="691" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B691" s="4" t="s">
         <v>1172</v>
       </c>
@@ -26665,7 +26666,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="692" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="692" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B692" s="4" t="s">
         <v>1173</v>
       </c>
@@ -26682,7 +26683,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="693" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="693" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B693" s="4" t="s">
         <v>1174</v>
       </c>
@@ -26699,7 +26700,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="694" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="694" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B694" s="4" t="s">
         <v>1175</v>
       </c>
@@ -26716,7 +26717,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="695" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="695" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B695" s="4" t="s">
         <v>1176</v>
       </c>
@@ -26733,7 +26734,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="696" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="696" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B696" s="4" t="s">
         <v>1177</v>
       </c>
@@ -26750,7 +26751,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="697" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B697" s="4" t="s">
         <v>1178</v>
       </c>
@@ -26767,7 +26768,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="698" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B698" s="4" t="s">
         <v>1179</v>
       </c>
@@ -26784,7 +26785,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="699" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B699" s="4" t="s">
         <v>1180</v>
       </c>
@@ -26801,7 +26802,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="700" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="700" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B700" s="4" t="s">
         <v>1181</v>
       </c>
@@ -26818,7 +26819,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="701" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="701" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B701" s="4" t="s">
         <v>1182</v>
       </c>
@@ -26835,7 +26836,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="702" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B702" s="4" t="s">
         <v>1183</v>
       </c>
@@ -26852,7 +26853,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="703" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="703" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B703" s="4" t="s">
         <v>1184</v>
       </c>
@@ -26869,7 +26870,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="704" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B704" s="4" t="s">
         <v>1185</v>
       </c>
@@ -26886,7 +26887,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="705" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B705" s="4" t="s">
         <v>1186</v>
       </c>
@@ -26903,7 +26904,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="706" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B706" s="4" t="s">
         <v>1187</v>
       </c>
@@ -26920,7 +26921,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="707" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B707" s="4" t="s">
         <v>1188</v>
       </c>
@@ -26937,7 +26938,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="708" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B708" s="4" t="s">
         <v>1189</v>
       </c>
@@ -26954,7 +26955,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="709" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B709" s="4" t="s">
         <v>1190</v>
       </c>
@@ -26971,7 +26972,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="710" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B710" s="4" t="s">
         <v>1191</v>
       </c>
@@ -26988,7 +26989,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="711" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B711" s="4" t="s">
         <v>1192</v>
       </c>
@@ -27005,7 +27006,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="712" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B712" s="4" t="s">
         <v>1193</v>
       </c>
@@ -27022,7 +27023,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="713" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B713" s="4" t="s">
         <v>1194</v>
       </c>
@@ -27039,7 +27040,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="714" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B714" s="4" t="s">
         <v>1195</v>
       </c>
@@ -27056,7 +27057,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="715" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B715" s="4" t="s">
         <v>1196</v>
       </c>
@@ -27073,7 +27074,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="716" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A716" s="3" t="s">
         <v>482</v>
       </c>
@@ -27081,7 +27082,7 @@
       <c r="D716" s="6"/>
       <c r="E716" s="6"/>
     </row>
-    <row r="717" spans="1:7" ht="57" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:7" ht="57" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B717" s="4" t="s">
         <v>369</v>
       </c>
@@ -27101,7 +27102,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="718" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B718" s="4" t="s">
         <v>360</v>
       </c>
@@ -27121,7 +27122,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="719" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B719" s="4" t="s">
         <v>362</v>
       </c>
@@ -27141,7 +27142,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="720" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B720" s="4" t="s">
         <v>361</v>
       </c>
@@ -27161,7 +27162,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="721" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B721" s="4" t="s">
         <v>363</v>
       </c>
@@ -27181,7 +27182,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="722" spans="1:7" ht="57" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:7" ht="57" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B722" s="4" t="s">
         <v>370</v>
       </c>
@@ -27201,7 +27202,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="723" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B723" s="4" t="s">
         <v>19</v>
       </c>
@@ -27218,7 +27219,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="724" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B724" s="4" t="s">
         <v>21</v>
       </c>
@@ -27235,7 +27236,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="725" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B725" s="4" t="s">
         <v>20</v>
       </c>
@@ -27252,7 +27253,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="726" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B726" s="4" t="s">
         <v>22</v>
       </c>
@@ -27269,7 +27270,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="727" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B727" s="4" t="s">
         <v>371</v>
       </c>
@@ -27289,7 +27290,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="728" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A728" s="3" t="s">
         <v>483</v>
       </c>
@@ -27297,7 +27298,7 @@
       <c r="D728" s="6"/>
       <c r="E728" s="6"/>
     </row>
-    <row r="729" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B729" s="4" t="s">
         <v>15</v>
       </c>
@@ -27311,7 +27312,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="730" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B730" s="4" t="s">
         <v>17</v>
       </c>
@@ -27325,7 +27326,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="731" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B731" s="4" t="s">
         <v>16</v>
       </c>
@@ -27339,7 +27340,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="732" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B732" s="4" t="s">
         <v>18</v>
       </c>
@@ -27353,7 +27354,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="733" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A733" s="3" t="s">
         <v>2055</v>
       </c>
@@ -27361,7 +27362,7 @@
       <c r="D733" s="6"/>
       <c r="E733" s="6"/>
     </row>
-    <row r="734" spans="1:7" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:7" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B734" s="4" t="s">
         <v>14</v>
       </c>
@@ -27375,7 +27376,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="735" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B735" s="4" t="s">
         <v>10</v>
       </c>
@@ -27392,7 +27393,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="736" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B736" s="4" t="s">
         <v>13</v>
       </c>
@@ -27406,7 +27407,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="737" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A737" s="3" t="s">
         <v>485</v>
       </c>
@@ -27414,7 +27415,7 @@
       <c r="D737" s="6"/>
       <c r="E737" s="6"/>
     </row>
-    <row r="738" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B738" s="4" t="s">
         <v>63</v>
       </c>
@@ -27431,7 +27432,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="739" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A739" s="3" t="s">
         <v>488</v>
       </c>
@@ -27439,7 +27440,7 @@
       <c r="D739" s="6"/>
       <c r="E739" s="6"/>
     </row>
-    <row r="740" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B740" s="4" t="s">
         <v>248</v>
       </c>
@@ -27456,7 +27457,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="741" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A741" s="3" t="s">
         <v>486</v>
       </c>
@@ -27464,7 +27465,7 @@
       <c r="D741" s="6"/>
       <c r="E741" s="6"/>
     </row>
-    <row r="742" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B742" s="4" t="s">
         <v>332</v>
       </c>
@@ -27481,7 +27482,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="743" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B743" s="4" t="s">
         <v>334</v>
       </c>
@@ -27498,7 +27499,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="744" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B744" s="4" t="s">
         <v>437</v>
       </c>
@@ -27518,7 +27519,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="745" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B745" s="4" t="s">
         <v>333</v>
       </c>
@@ -27535,7 +27536,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="746" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B746" s="4" t="s">
         <v>335</v>
       </c>
@@ -27552,7 +27553,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="747" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B747" s="4" t="s">
         <v>336</v>
       </c>
@@ -27569,7 +27570,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="748" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B748" s="4" t="s">
         <v>338</v>
       </c>
@@ -27586,7 +27587,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="749" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B749" s="4" t="s">
         <v>438</v>
       </c>
@@ -27606,7 +27607,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="750" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B750" s="4" t="s">
         <v>337</v>
       </c>
@@ -27623,7 +27624,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="751" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B751" s="4" t="s">
         <v>339</v>
       </c>
@@ -27640,7 +27641,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="752" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A752" s="3" t="s">
         <v>487</v>
       </c>
@@ -27648,7 +27649,7 @@
       <c r="D752" s="6"/>
       <c r="E752" s="6"/>
     </row>
-    <row r="753" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B753" s="4" t="s">
         <v>325</v>
       </c>
@@ -27665,7 +27666,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="754" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B754" s="4" t="s">
         <v>326</v>
       </c>
@@ -27682,7 +27683,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="755" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B755" s="4" t="s">
         <v>327</v>
       </c>
@@ -27699,7 +27700,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="756" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B756" s="4" t="s">
         <v>328</v>
       </c>
@@ -27716,7 +27717,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="757" spans="1:7" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:7" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B757" s="4" t="s">
         <v>329</v>
       </c>
@@ -27733,7 +27734,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="758" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B758" s="4" t="s">
         <v>330</v>
       </c>
@@ -27750,7 +27751,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="759" spans="1:7" s="3" customFormat="1" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A759" s="3" t="s">
         <v>489</v>
       </c>
@@ -27758,7 +27759,7 @@
       <c r="D759" s="6"/>
       <c r="E759" s="6"/>
     </row>
-    <row r="760" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B760" s="4" t="s">
         <v>274</v>
       </c>
@@ -27775,7 +27776,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="761" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B761" s="4" t="s">
         <v>275</v>
       </c>
@@ -27792,7 +27793,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="762" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B762" s="4" t="s">
         <v>276</v>
       </c>
@@ -27809,7 +27810,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="763" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B763" s="4" t="s">
         <v>280</v>
       </c>
@@ -27826,7 +27827,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="764" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B764" s="4" t="s">
         <v>281</v>
       </c>
@@ -27843,7 +27844,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="765" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B765" s="4" t="s">
         <v>282</v>
       </c>
@@ -27860,7 +27861,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="766" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B766" s="4" t="s">
         <v>286</v>
       </c>
@@ -27877,7 +27878,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="767" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B767" s="4" t="s">
         <v>287</v>
       </c>
@@ -27894,7 +27895,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="768" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B768" s="4" t="s">
         <v>288</v>
       </c>
@@ -27911,7 +27912,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="769" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="769" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B769" s="4" t="s">
         <v>292</v>
       </c>
@@ -27928,7 +27929,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="770" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="770" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B770" s="4" t="s">
         <v>293</v>
       </c>
@@ -27945,7 +27946,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="771" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="771" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B771" s="4" t="s">
         <v>294</v>
       </c>
@@ -27962,7 +27963,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="772" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="772" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B772" s="4" t="s">
         <v>298</v>
       </c>
@@ -27979,7 +27980,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="773" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="773" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B773" s="4" t="s">
         <v>299</v>
       </c>
@@ -27996,7 +27997,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="774" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="774" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B774" s="4" t="s">
         <v>300</v>
       </c>
@@ -28013,7 +28014,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="775" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="775" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B775" s="4" t="s">
         <v>304</v>
       </c>
@@ -28030,7 +28031,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="776" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="776" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B776" s="4" t="s">
         <v>305</v>
       </c>
@@ -28047,7 +28048,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="777" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="777" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B777" s="4" t="s">
         <v>306</v>
       </c>
@@ -28064,7 +28065,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="778" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="778" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B778" s="4" t="s">
         <v>310</v>
       </c>
@@ -28081,7 +28082,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="779" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="779" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B779" s="4" t="s">
         <v>311</v>
       </c>
@@ -28098,7 +28099,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="780" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="780" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B780" s="4" t="s">
         <v>312</v>
       </c>
@@ -28115,7 +28116,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="781" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="781" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B781" s="4" t="s">
         <v>316</v>
       </c>
@@ -28132,7 +28133,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="782" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="782" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B782" s="4" t="s">
         <v>317</v>
       </c>
@@ -28149,7 +28150,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="783" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="783" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B783" s="4" t="s">
         <v>318</v>
       </c>
@@ -28166,7 +28167,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="784" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="784" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B784" s="4" t="s">
         <v>322</v>
       </c>
@@ -28183,7 +28184,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="785" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="785" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B785" s="4" t="s">
         <v>323</v>
       </c>
@@ -28200,7 +28201,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="786" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="786" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B786" s="4" t="s">
         <v>324</v>
       </c>
@@ -28217,7 +28218,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="787" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="787" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B787" s="4" t="s">
         <v>1197</v>
       </c>
@@ -28234,7 +28235,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="788" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="788" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B788" s="4" t="s">
         <v>1198</v>
       </c>
@@ -28251,7 +28252,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="789" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="789" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B789" s="4" t="s">
         <v>1199</v>
       </c>
@@ -28268,7 +28269,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="790" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="790" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B790" s="4" t="s">
         <v>1200</v>
       </c>
@@ -28285,7 +28286,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="791" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="791" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B791" s="4" t="s">
         <v>1201</v>
       </c>
@@ -28302,7 +28303,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="792" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="792" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B792" s="4" t="s">
         <v>1202</v>
       </c>
@@ -28319,7 +28320,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="793" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="793" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B793" s="4" t="s">
         <v>1203</v>
       </c>
@@ -28336,7 +28337,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="794" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="794" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B794" s="4" t="s">
         <v>1204</v>
       </c>
@@ -28353,7 +28354,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="795" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="795" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B795" s="4" t="s">
         <v>1205</v>
       </c>
@@ -28370,7 +28371,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="796" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="796" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B796" s="4" t="s">
         <v>1206</v>
       </c>
@@ -28387,7 +28388,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="797" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="797" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B797" s="4" t="s">
         <v>1207</v>
       </c>
@@ -28404,7 +28405,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="798" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="798" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B798" s="4" t="s">
         <v>1208</v>
       </c>
@@ -28421,7 +28422,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="799" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="799" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B799" s="4" t="s">
         <v>1209</v>
       </c>
@@ -28438,7 +28439,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="800" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="800" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B800" s="4" t="s">
         <v>1210</v>
       </c>
@@ -28455,7 +28456,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="801" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B801" s="4" t="s">
         <v>1211</v>
       </c>
@@ -28472,7 +28473,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="802" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B802" s="4" t="s">
         <v>1212</v>
       </c>
@@ -28489,7 +28490,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="803" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B803" s="4" t="s">
         <v>1213</v>
       </c>
@@ -28506,7 +28507,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="804" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B804" s="4" t="s">
         <v>1214</v>
       </c>
@@ -28523,7 +28524,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="805" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B805" s="4" t="s">
         <v>1215</v>
       </c>
@@ -28540,7 +28541,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="806" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B806" s="4" t="s">
         <v>1216</v>
       </c>
@@ -28557,7 +28558,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="807" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B807" s="4" t="s">
         <v>1217</v>
       </c>
@@ -28574,7 +28575,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="808" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B808" s="4" t="s">
         <v>1218</v>
       </c>
@@ -28591,7 +28592,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="809" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B809" s="4" t="s">
         <v>1219</v>
       </c>
@@ -28608,7 +28609,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="810" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B810" s="4" t="s">
         <v>1220</v>
       </c>
@@ -28625,7 +28626,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="811" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B811" s="4" t="s">
         <v>1221</v>
       </c>
@@ -28642,7 +28643,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="812" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B812" s="4" t="s">
         <v>1222</v>
       </c>
@@ -28659,7 +28660,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="813" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B813" s="4" t="s">
         <v>1223</v>
       </c>
@@ -28676,7 +28677,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="814" spans="1:7" ht="28.5" collapsed="1" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A814" s="3" t="s">
         <v>1253</v>
       </c>
@@ -28689,7 +28690,7 @@
       <c r="F814" s="3"/>
       <c r="G814" s="3"/>
     </row>
-    <row r="815" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B815" s="4" t="s">
         <v>1259</v>
       </c>
@@ -28700,7 +28701,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="816" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B816" s="4" t="s">
         <v>1258</v>
       </c>
@@ -28711,7 +28712,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="817" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="817" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B817" s="4" t="s">
         <v>1260</v>
       </c>
@@ -28725,7 +28726,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="818" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="818" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B818" s="4" t="s">
         <v>1255</v>
       </c>
@@ -28736,7 +28737,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="819" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="819" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B819" s="4" t="s">
         <v>1256</v>
       </c>
@@ -28747,7 +28748,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="820" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="820" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B820" s="4" t="s">
         <v>1257</v>
       </c>
@@ -28761,7 +28762,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="821" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="821" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B821" s="4" t="s">
         <v>1261</v>
       </c>
@@ -28772,7 +28773,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="822" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="822" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B822" s="4" t="s">
         <v>1262</v>
       </c>
@@ -28783,7 +28784,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="823" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="823" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B823" s="4" t="s">
         <v>1263</v>
       </c>
@@ -28797,7 +28798,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="824" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="824" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B824" s="4" t="s">
         <v>1264</v>
       </c>
@@ -28811,7 +28812,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="825" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="825" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B825" s="4" t="s">
         <v>1265</v>
       </c>
@@ -28822,7 +28823,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="826" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="826" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B826" s="4" t="s">
         <v>1266</v>
       </c>
@@ -28833,7 +28834,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="827" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="827" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B827" s="4" t="s">
         <v>1267</v>
       </c>
@@ -28844,7 +28845,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="828" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="828" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B828" s="4" t="s">
         <v>1268</v>
       </c>
@@ -28855,7 +28856,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="829" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="829" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B829" s="4" t="s">
         <v>1269</v>
       </c>
@@ -28866,7 +28867,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="830" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="830" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B830" s="4" t="s">
         <v>1270</v>
       </c>
@@ -28877,7 +28878,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="831" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="831" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B831" s="4" t="s">
         <v>1271</v>
       </c>
@@ -28888,7 +28889,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="832" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="832" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B832" s="4" t="s">
         <v>1272</v>
       </c>
@@ -28899,7 +28900,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="833" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="833" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B833" s="4" t="s">
         <v>1273</v>
       </c>
@@ -28910,7 +28911,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="834" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="834" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B834" s="4" t="s">
         <v>1274</v>
       </c>
@@ -28921,7 +28922,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="835" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="835" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B835" s="4" t="s">
         <v>1275</v>
       </c>
@@ -28932,7 +28933,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="836" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="836" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B836" s="4" t="s">
         <v>1276</v>
       </c>
@@ -28943,7 +28944,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="837" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="837" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B837" s="4" t="s">
         <v>1277</v>
       </c>
@@ -28954,7 +28955,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="838" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="838" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B838" s="4" t="s">
         <v>1278</v>
       </c>
@@ -28965,7 +28966,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="839" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="839" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B839" s="4" t="s">
         <v>1279</v>
       </c>
@@ -28976,7 +28977,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="840" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="840" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B840" s="4" t="s">
         <v>1280</v>
       </c>
@@ -28987,7 +28988,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="841" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="841" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B841" s="4" t="s">
         <v>1282</v>
       </c>
@@ -28998,7 +28999,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="842" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="842" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B842" s="4" t="s">
         <v>1283</v>
       </c>
@@ -29012,7 +29013,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="843" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="843" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B843" s="4" t="s">
         <v>1284</v>
       </c>
@@ -29023,7 +29024,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="844" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="844" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B844" s="4" t="s">
         <v>1285</v>
       </c>
@@ -29034,7 +29035,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="845" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="845" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B845" s="4" t="s">
         <v>1286</v>
       </c>
@@ -29048,7 +29049,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="846" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="846" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B846" s="4" t="s">
         <v>1287</v>
       </c>
@@ -29059,7 +29060,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="847" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="847" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B847" s="4" t="s">
         <v>1288</v>
       </c>
@@ -29070,7 +29071,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="848" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="848" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B848" s="4" t="s">
         <v>1289</v>
       </c>
@@ -29084,7 +29085,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="849" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="849" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B849" s="4" t="s">
         <v>1290</v>
       </c>
@@ -29098,7 +29099,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="850" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="850" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B850" s="4" t="s">
         <v>1291</v>
       </c>
@@ -29109,7 +29110,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="851" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="851" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B851" s="4" t="s">
         <v>1292</v>
       </c>
@@ -29120,7 +29121,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="852" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="852" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B852" s="4" t="s">
         <v>1293</v>
       </c>
@@ -29131,7 +29132,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="853" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="853" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B853" s="4" t="s">
         <v>1294</v>
       </c>
@@ -29142,7 +29143,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="854" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="854" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B854" s="4" t="s">
         <v>1295</v>
       </c>
@@ -29153,7 +29154,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="855" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="855" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B855" s="4" t="s">
         <v>1296</v>
       </c>
@@ -29164,7 +29165,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="856" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="856" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B856" s="4" t="s">
         <v>1297</v>
       </c>
@@ -29175,7 +29176,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="857" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="857" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B857" s="4" t="s">
         <v>1298</v>
       </c>
@@ -29186,7 +29187,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="858" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="858" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B858" s="4" t="s">
         <v>1299</v>
       </c>
@@ -29197,7 +29198,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="859" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="859" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B859" s="4" t="s">
         <v>1300</v>
       </c>
@@ -29208,7 +29209,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="860" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="860" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B860" s="4" t="s">
         <v>1301</v>
       </c>
@@ -29219,7 +29220,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="861" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="861" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B861" s="4" t="s">
         <v>1302</v>
       </c>
@@ -29230,7 +29231,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="862" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="862" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B862" s="4" t="s">
         <v>1303</v>
       </c>
@@ -29241,7 +29242,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="863" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="863" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B863" s="4" t="s">
         <v>1304</v>
       </c>
@@ -29252,7 +29253,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="864" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="864" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B864" s="4" t="s">
         <v>1305</v>
       </c>
@@ -29263,7 +29264,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="865" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="865" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B865" s="4" t="s">
         <v>1355</v>
       </c>
@@ -29274,7 +29275,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="866" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="866" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B866" s="4" t="s">
         <v>1356</v>
       </c>
@@ -29285,7 +29286,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="867" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="867" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B867" s="4" t="s">
         <v>1357</v>
       </c>
@@ -29299,7 +29300,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="868" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="868" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B868" s="4" t="s">
         <v>1358</v>
       </c>
@@ -29310,7 +29311,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="869" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="869" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B869" s="4" t="s">
         <v>1359</v>
       </c>
@@ -29321,7 +29322,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="870" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="870" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B870" s="4" t="s">
         <v>1360</v>
       </c>
@@ -29335,7 +29336,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="871" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="871" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B871" s="4" t="s">
         <v>1361</v>
       </c>
@@ -29346,7 +29347,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="872" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="872" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B872" s="4" t="s">
         <v>1362</v>
       </c>
@@ -29357,7 +29358,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="873" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="873" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B873" s="4" t="s">
         <v>1363</v>
       </c>
@@ -29371,7 +29372,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="874" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="874" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B874" s="4" t="s">
         <v>1364</v>
       </c>
@@ -29385,7 +29386,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="875" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="875" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B875" s="4" t="s">
         <v>1365</v>
       </c>
@@ -29396,7 +29397,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="876" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="876" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B876" s="4" t="s">
         <v>1366</v>
       </c>
@@ -29407,7 +29408,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="877" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="877" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B877" s="4" t="s">
         <v>1367</v>
       </c>
@@ -29418,7 +29419,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="878" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="878" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B878" s="4" t="s">
         <v>1368</v>
       </c>
@@ -29429,7 +29430,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="879" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="879" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B879" s="4" t="s">
         <v>1369</v>
       </c>
@@ -29440,7 +29441,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="880" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="880" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B880" s="4" t="s">
         <v>1370</v>
       </c>
@@ -29451,7 +29452,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="881" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="881" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B881" s="4" t="s">
         <v>1371</v>
       </c>
@@ -29462,7 +29463,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="882" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="882" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B882" s="4" t="s">
         <v>1372</v>
       </c>
@@ -29473,7 +29474,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="883" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="883" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B883" s="4" t="s">
         <v>1373</v>
       </c>
@@ -29484,7 +29485,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="884" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="884" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B884" s="4" t="s">
         <v>1374</v>
       </c>
@@ -29495,7 +29496,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="885" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="885" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B885" s="4" t="s">
         <v>1375</v>
       </c>
@@ -29506,7 +29507,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="886" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="886" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B886" s="4" t="s">
         <v>1376</v>
       </c>
@@ -29517,7 +29518,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="887" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="887" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B887" s="4" t="s">
         <v>1377</v>
       </c>
@@ -29528,7 +29529,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="888" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="888" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B888" s="4" t="s">
         <v>1378</v>
       </c>
@@ -29539,7 +29540,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="889" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="889" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B889" s="4" t="s">
         <v>1379</v>
       </c>
@@ -29550,7 +29551,6 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="890" spans="2:6" collapsed="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" fitToHeight="35" orientation="landscape" r:id="rId1"/>
